--- a/plan/single.xlsx
+++ b/plan/single.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>flat_x_random_range</t>
   </si>
@@ -56,6 +56,18 @@
   </si>
   <si>
     <t>道具纵坐标缩放比</t>
+  </si>
+  <si>
+    <t>gravity</t>
+  </si>
+  <si>
+    <t>重力</t>
+  </si>
+  <si>
+    <t>speed_base</t>
+  </si>
+  <si>
+    <t>初始速度基准</t>
   </si>
 </sst>
 </file>
@@ -63,12 +75,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -84,6 +96,91 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -107,122 +204,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -237,187 +242,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -440,45 +445,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -490,6 +456,24 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -520,11 +504,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -533,148 +538,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1030,13 +1035,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="21.5" customWidth="1"/>
   </cols>
@@ -1046,7 +1051,7 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -1057,7 +1062,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
@@ -1079,7 +1084,7 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
@@ -1090,7 +1095,7 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
@@ -1116,6 +1121,28 @@
       </c>
       <c r="C7" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8">
+        <v>1000</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9">
+        <v>1200</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/plan/single.xlsx
+++ b/plan/single.xlsx
@@ -14,7 +14,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+  <si>
+    <t>float</t>
+  </si>
   <si>
     <t>flat_x_random_range</t>
   </si>
@@ -75,8 +78,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -89,6 +92,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -97,14 +108,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -119,7 +130,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -150,7 +161,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -158,23 +169,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -182,7 +177,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -204,14 +199,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -219,15 +230,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -242,120 +245,174 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -368,61 +425,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -433,6 +436,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -463,43 +481,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -519,17 +517,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -541,10 +544,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -553,133 +556,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1035,10 +1038,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1046,103 +1049,108 @@
     <col min="1" max="1" width="21.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
+    <row r="1" spans="2:2">
+      <c r="B1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1">
-        <v>100</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>100</v>
+      </c>
+      <c r="C2" t="s">
         <v>2</v>
-      </c>
-      <c r="B2">
-        <v>0.2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>0.2</v>
+      </c>
+      <c r="C3" t="s">
         <v>4</v>
-      </c>
-      <c r="B3">
-        <v>400</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>400</v>
+      </c>
+      <c r="C4" t="s">
         <v>6</v>
-      </c>
-      <c r="B4">
-        <v>0.2</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5">
         <v>0.2</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6">
         <v>0.2</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7">
         <v>0.2</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8">
+        <v>0.2</v>
+      </c>
+      <c r="C8" t="s">
         <v>14</v>
-      </c>
-      <c r="B8">
-        <v>1000</v>
-      </c>
-      <c r="C8" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9">
+        <v>1000</v>
+      </c>
+      <c r="C9" t="s">
         <v>16</v>
       </c>
-      <c r="B9">
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10">
         <v>1200</v>
       </c>
-      <c r="C9" t="s">
-        <v>17</v>
+      <c r="C10" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/plan/single.xlsx
+++ b/plan/single.xlsx
@@ -78,10 +78,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -92,6 +92,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -100,13 +121,53 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -114,8 +175,54 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -128,113 +235,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -245,31 +245,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -281,151 +407,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -458,7 +458,31 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -480,9 +504,20 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -501,41 +536,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -544,10 +544,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -556,133 +556,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1041,7 +1041,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1059,7 +1059,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>

--- a/plan/single.xlsx
+++ b/plan/single.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>float</t>
   </si>
@@ -71,6 +71,12 @@
   </si>
   <si>
     <t>初始速度基准</t>
+  </si>
+  <si>
+    <t>falt_start</t>
+  </si>
+  <si>
+    <t>random_range</t>
   </si>
 </sst>
 </file>
@@ -79,9 +85,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -100,7 +106,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -110,6 +139,28 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -137,15 +188,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -159,9 +227,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -172,67 +239,6 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -245,6 +251,156 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -257,19 +413,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -281,151 +431,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -436,6 +442,54 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -463,15 +517,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -487,21 +532,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -512,30 +542,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -544,10 +550,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -556,133 +562,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1038,10 +1044,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1153,6 +1159,22 @@
         <v>18</v>
       </c>
     </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11">
+        <v>-480</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/plan/single.xlsx
+++ b/plan/single.xlsx
@@ -73,7 +73,7 @@
     <t>初始速度基准</t>
   </si>
   <si>
-    <t>falt_start</t>
+    <t>flat_start</t>
   </si>
   <si>
     <t>random_range</t>
@@ -84,8 +84,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -99,22 +99,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -136,13 +136,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -150,7 +143,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -164,7 +157,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -196,6 +188,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -212,23 +226,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -251,187 +251,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -445,26 +445,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -493,17 +484,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -513,6 +498,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -550,10 +550,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -562,133 +562,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1047,7 +1047,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>

--- a/plan/single.xlsx
+++ b/plan/single.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>float</t>
   </si>
@@ -81,6 +81,14 @@
   </si>
   <si>
     <t>item_create_prob</t>
+  </si>
+  <si>
+    <t>small_map_scale</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小地图缩放比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -497,10 +505,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -636,6 +644,17 @@
         <v>0.4</v>
       </c>
     </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14">
+        <v>0.125</v>
+      </c>
+      <c r="C14" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/plan/single.xlsx
+++ b/plan/single.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2715" windowWidth="10665" windowHeight="10950"/>
+    <workbookView windowWidth="28800" windowHeight="12150"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="144525"/>
   <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>float</t>
   </si>
@@ -84,18 +84,28 @@
   </si>
   <si>
     <t>small_map_scale</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>小地图缩放比</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>my_item_max</t>
+  </si>
+  <si>
+    <t>hp_max</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -104,21 +114,345 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -126,9 +460,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -137,79 +713,58 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -226,7 +781,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="AFDCB5"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -499,29 +1054,29 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="21.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:2">
       <c r="B1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -532,7 +1087,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -543,7 +1098,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -554,7 +1109,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -565,7 +1120,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -576,7 +1131,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -587,7 +1142,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -598,7 +1153,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -609,7 +1164,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -620,7 +1175,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -628,7 +1183,7 @@
         <v>-480</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -636,7 +1191,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -644,7 +1199,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -655,9 +1210,25 @@
         <v>23</v>
       </c>
     </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/plan/single.xlsx
+++ b/plan/single.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>float</t>
   </si>
@@ -93,6 +93,12 @@
   </si>
   <si>
     <t>hp_max</t>
+  </si>
+  <si>
+    <t>flat_y</t>
+  </si>
+  <si>
+    <t>平板纵坐标</t>
   </si>
 </sst>
 </file>
@@ -115,20 +121,19 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -151,20 +156,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -173,6 +164,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -206,19 +219,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -237,22 +259,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -267,6 +273,156 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -279,175 +435,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -461,17 +467,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -500,6 +500,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -524,11 +535,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -547,17 +564,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -566,145 +572,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1060,10 +1066,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1226,6 +1232,17 @@
         <v>3</v>
       </c>
     </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17">
+        <v>-179</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/plan/single.xlsx
+++ b/plan/single.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12150"/>
+    <workbookView windowWidth="28800" windowHeight="12615"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>float</t>
   </si>
@@ -99,6 +99,9 @@
   </si>
   <si>
     <t>平板纵坐标</t>
+  </si>
+  <si>
+    <t>avatar_width</t>
   </si>
 </sst>
 </file>
@@ -106,10 +109,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -120,6 +123,43 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -128,14 +168,61 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -150,29 +237,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -180,7 +253,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -189,76 +262,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -273,187 +276,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -464,6 +467,36 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -485,21 +518,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -507,6 +525,30 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -525,45 +567,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -572,145 +575,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -787,7 +790,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="AFDCB5"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1066,10 +1069,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1243,6 +1246,14 @@
         <v>27</v>
       </c>
     </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18">
+        <v>100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/plan/single.xlsx
+++ b/plan/single.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12615"/>
+    <workbookView windowWidth="19200" windowHeight="11775"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>float</t>
   </si>
@@ -102,6 +102,12 @@
   </si>
   <si>
     <t>avatar_width</t>
+  </si>
+  <si>
+    <t>avatar_start_pos_x</t>
+  </si>
+  <si>
+    <t>avatar_start_pos_y</t>
   </si>
 </sst>
 </file>
@@ -109,15 +115,83 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -131,8 +205,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -140,35 +229,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -176,22 +245,6 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -199,7 +252,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -207,61 +268,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -276,187 +282,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -485,6 +491,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -496,24 +511,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -567,6 +564,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -575,10 +581,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -587,133 +593,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -790,7 +796,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="AFDCB5"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1069,10 +1075,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1254,6 +1260,22 @@
         <v>100</v>
       </c>
     </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19">
+        <v>-475</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20">
+        <v>-69</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/plan/single.xlsx
+++ b/plan/single.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="11775"/>
+    <workbookView windowWidth="28800" windowHeight="12150"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>float</t>
   </si>
@@ -108,6 +108,9 @@
   </si>
   <si>
     <t>avatar_start_pos_y</t>
+  </si>
+  <si>
+    <t>flat_height_scale</t>
   </si>
 </sst>
 </file>
@@ -115,10 +118,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -129,9 +132,98 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -152,122 +244,33 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -282,13 +285,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -300,7 +369,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -312,37 +387,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -354,19 +447,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -378,91 +459,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -476,17 +479,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -515,26 +527,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -550,26 +542,37 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -581,10 +584,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -593,16 +596,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -611,115 +614,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1075,10 +1078,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1129,7 +1132,7 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="C5" t="s">
         <v>8</v>
@@ -1140,7 +1143,7 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="C6" t="s">
         <v>10</v>
@@ -1274,6 +1277,14 @@
       </c>
       <c r="B20">
         <v>-69</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21">
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
